--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(L)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(L).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(L)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(L).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leo
-Leocereus - fam. Cactacées (Cactus)
-Leocereus bahiensis
-Lep
-Lepismium - fam. Cactacées (Cactus)
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leocereus - fam. Cactacées (Cactus)
+Leocereus bahiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lep</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lepismium - fam. Cactacées (Cactus)
 Lepismium aculeatum
 Lepismium bolivianum
 Lepismium brevispinum
@@ -538,45 +589,118 @@
 Leptocereus assurgens
 Leptocereus paniculatus
 Leptocereus quadricostatus
-Leptocereus weingartianus
-Leu
-Leuchtenbergia - fam. Cactacées (Cactus)
+Leptocereus weingartianus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Leu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leuchtenbergia - fam. Cactacées (Cactus)
 Leuchtenbergia principis
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lon
-Lonchocarpus
-Lonchocarpus peninsularis
-Lop
-Lophophora - fam. Cactacées (Cactus)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lonchocarpus
+Lonchocarpus peninsularis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lophophora - fam. Cactacées (Cactus)
 Lophophora diffusa
 Lophophora diffusa
 Lophophora lutea
